--- a/Masters/Equipment/EquipmentStatusMaster/ClassSchema.xlsx
+++ b/Masters/Equipment/EquipmentStatusMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Equipment\EquipmentStatusMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FB98CA-11F5-46B1-8F65-12A08378C3AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31C16C-463C-425A-84DC-7470EF9FECF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>装備
 ステータスID</t>
   </si>
@@ -141,9 +138,6 @@
     <t>int?</t>
   </si>
   <si>
-    <t>ushort</t>
-  </si>
-  <si>
     <t>StatusId</t>
   </si>
   <si>
@@ -235,6 +229,14 @@
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uint?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ushort?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -653,7 +655,7 @@
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -682,94 +684,94 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -866,186 +868,186 @@
     </row>
     <row r="3" spans="1:30" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
